--- a/Models/August 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
+++ b/Models/August 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\August 2018\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\Models\August 2018\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -322,6 +328,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -349,30 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4989,7 +4996,7 @@
   <dimension ref="A1:BX106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,29 +5005,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -5050,24 +5057,24 @@
       <c r="AV1" s="3"/>
     </row>
     <row r="2" spans="1:68" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -5082,58 +5089,58 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="BC2" s="10" t="s">
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="BC2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
     </row>
     <row r="3" spans="1:68" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -5474,15 +5481,15 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="27">
         <f>X63</f>
         <v>22.0267892676044</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="27">
         <f t="shared" ref="D6:E17" si="2">Y63</f>
         <v>25.469993761509301</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="27">
         <f t="shared" si="2"/>
         <v>28.917188730918099</v>
       </c>
@@ -5492,15 +5499,15 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="27">
         <f>AK$19/1000000</f>
         <v>22.0267892676044</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="27">
         <f>AK$20/1000000</f>
         <v>25.469993761509301</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="27">
         <f>AK$21/1000000</f>
         <v>28.917188730918099</v>
       </c>
@@ -5608,15 +5615,15 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="27">
         <f t="shared" ref="C7:C17" si="3">X64</f>
         <v>22.062118046998901</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="27">
         <f t="shared" si="2"/>
         <v>25.430626613748601</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="27">
         <f t="shared" si="2"/>
         <v>28.908585802204698</v>
       </c>
@@ -5626,15 +5633,15 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="27">
         <f>AL$19/1000000</f>
         <v>22.062957401262</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="27">
         <f>AL$20/1000000</f>
         <v>25.512129051831799</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="27">
         <f>AL$21/1000000</f>
         <v>28.9593240212407</v>
       </c>
@@ -5688,15 +5695,15 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="27">
         <f t="shared" si="3"/>
         <v>22.0802512311915</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="27">
         <f t="shared" si="2"/>
         <v>25.391581226607901</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="27">
         <f t="shared" si="2"/>
         <v>28.885336047102601</v>
       </c>
@@ -5706,15 +5713,15 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="27">
         <f>AM$19/1000000</f>
         <v>22.1016198889651</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="27">
         <f>AM$20/1000000</f>
         <v>25.554264342154397</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="27">
         <f>AM$21/1000000</f>
         <v>29.001459311563302</v>
       </c>
@@ -5768,15 +5775,15 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="27">
         <f t="shared" si="3"/>
         <v>22.125044752723401</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="27">
         <f t="shared" si="2"/>
         <v>25.3306436858749</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="27">
         <f t="shared" si="2"/>
         <v>28.855989770446502</v>
       </c>
@@ -5786,15 +5793,15 @@
       <c r="I9">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="27">
         <f>AN$19/1000000</f>
         <v>22.187536528305198</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="27">
         <f>AN$20/1000000</f>
         <v>25.638534922799597</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="27">
         <f>AN$21/1000000</f>
         <v>29.085729892208402</v>
       </c>
@@ -5902,15 +5909,15 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="27">
         <f t="shared" si="3"/>
         <v>21.9723253035082</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="27">
         <f t="shared" si="2"/>
         <v>25.082779225556102</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="27">
         <f t="shared" si="2"/>
         <v>28.596435432257699</v>
       </c>
@@ -5920,15 +5927,15 @@
       <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="27">
         <f>AO$19/1000000</f>
         <v>22.224673687057102</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="27">
         <f>AO$20/1000000</f>
         <v>25.635725903444701</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="27">
         <f>AO$21/1000000</f>
         <v>29.082920872853599</v>
       </c>
@@ -6036,15 +6043,15 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="27">
         <f t="shared" si="3"/>
         <v>21.8272251647251</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="27">
         <f t="shared" si="2"/>
         <v>24.864527389753498</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="27">
         <f t="shared" si="2"/>
         <v>28.366493718584998</v>
       </c>
@@ -6054,15 +6061,15 @@
       <c r="I11">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="27">
         <f>AP$19/1000000</f>
         <v>22.2697839099398</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="27">
         <f>AP$20/1000000</f>
         <v>25.632916884089898</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="27">
         <f>AP$21/1000000</f>
         <v>29.080111853498803</v>
       </c>
@@ -6170,15 +6177,15 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="27">
         <f t="shared" si="3"/>
         <v>21.626934833045098</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="27">
         <f t="shared" si="2"/>
         <v>24.6208939646543</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="27">
         <f t="shared" si="2"/>
         <v>28.1357966286572</v>
       </c>
@@ -6188,15 +6195,15 @@
       <c r="I12">
         <v>9</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="27">
         <f>AQ$19/1000000</f>
         <v>22.261075949939798</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="27">
         <f>AQ$20/1000000</f>
         <v>25.571867530111398</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="27">
         <f>AQ$21/1000000</f>
         <v>29.019062499520302</v>
       </c>
@@ -6250,15 +6257,15 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="27">
         <f t="shared" si="3"/>
         <v>21.4266445013651</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="27">
         <f t="shared" si="2"/>
         <v>24.3903884707379</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="27">
         <f t="shared" si="2"/>
         <v>27.9182274699122</v>
       </c>
@@ -6268,15 +6275,15 @@
       <c r="I13">
         <v>10</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="27">
         <f>AR$19/1000000</f>
         <v>22.252367989939803</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="27">
         <f>AR$20/1000000</f>
         <v>25.510818176132897</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="27">
         <f>AR$21/1000000</f>
         <v>28.958013145541798</v>
       </c>
@@ -6330,15 +6337,15 @@
       <c r="B14">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="27">
         <f t="shared" si="3"/>
         <v>21.1549689011471</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="27">
         <f t="shared" si="2"/>
         <v>24.069133875134501</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="27">
         <f t="shared" si="2"/>
         <v>27.6616545501657</v>
       </c>
@@ -6348,15 +6355,15 @@
       <c r="I14">
         <v>15</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="27">
         <f>AS$19/1000000</f>
         <v>22.0537825757586</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="27">
         <f>AS$20/1000000</f>
         <v>25.205571406240399</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="27">
         <f>AS$21/1000000</f>
         <v>28.6527663756493</v>
       </c>
@@ -6464,15 +6471,15 @@
       <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="27">
         <f t="shared" si="3"/>
         <v>20.821996041665301</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="27">
         <f t="shared" si="2"/>
         <v>23.687818035660101</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="27">
         <f t="shared" si="2"/>
         <v>27.345020386548299</v>
       </c>
@@ -6482,15 +6489,15 @@
       <c r="I15">
         <v>20</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="27">
         <f>AT$19/1000000</f>
         <v>21.748535805866101</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="27">
         <f>AT$20/1000000</f>
         <v>24.900324636348003</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="27">
         <f>AT$21/1000000</f>
         <v>28.347519605756801</v>
       </c>
@@ -6598,15 +6605,15 @@
       <c r="B16">
         <v>25</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="27">
         <f t="shared" si="3"/>
         <v>20.413285117667499</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="27">
         <f t="shared" si="2"/>
         <v>23.230764131669599</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="27">
         <f t="shared" si="2"/>
         <v>26.952648158414799</v>
       </c>
@@ -6616,15 +6623,15 @@
       <c r="I16">
         <v>25</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="27">
         <f>AU$19/1000000</f>
         <v>21.443289035973603</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="27">
         <f>AU$20/1000000</f>
         <v>24.595077866455497</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="27">
         <f>AU$21/1000000</f>
         <v>28.042272835864399</v>
       </c>
@@ -6690,15 +6697,15 @@
       <c r="B17">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="27">
         <f t="shared" si="3"/>
         <v>19.822857763708701</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="27">
         <f>Y74</f>
         <v>22.582325201719701</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="27">
         <f t="shared" si="2"/>
         <v>26.381827239493298</v>
       </c>
@@ -6708,15 +6715,15 @@
       <c r="I17">
         <v>31</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="27">
         <f>AV$19/1000000</f>
         <v>21.0769929121027</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="27">
         <f>AV$20/1000000</f>
         <v>24.228781742584502</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="27">
         <f>AV$21/1000000</f>
         <v>27.6759767119934</v>
       </c>
@@ -6898,20 +6905,20 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="45" spans="22:76" x14ac:dyDescent="0.25">
-      <c r="BK45" s="20"/>
-      <c r="BL45" s="20"/>
-      <c r="BM45" s="20"/>
-      <c r="BN45" s="20"/>
-      <c r="BO45" s="20"/>
-      <c r="BP45" s="20"/>
-      <c r="BQ45" s="20"/>
-      <c r="BR45" s="20"/>
-      <c r="BS45" s="20"/>
-      <c r="BT45" s="20"/>
-      <c r="BU45" s="20"/>
-      <c r="BV45" s="20"/>
-      <c r="BW45" s="20"/>
-      <c r="BX45" s="20"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="11"/>
+      <c r="BM45" s="11"/>
+      <c r="BN45" s="11"/>
+      <c r="BO45" s="11"/>
+      <c r="BP45" s="11"/>
+      <c r="BQ45" s="11"/>
+      <c r="BR45" s="11"/>
+      <c r="BS45" s="11"/>
+      <c r="BT45" s="11"/>
+      <c r="BU45" s="11"/>
+      <c r="BV45" s="11"/>
+      <c r="BW45" s="11"/>
+      <c r="BX45" s="11"/>
     </row>
     <row r="46" spans="22:76" x14ac:dyDescent="0.25">
       <c r="BK46" s="7"/>
@@ -7136,56 +7143,56 @@
       <c r="BX58" s="7"/>
     </row>
     <row r="59" spans="1:76" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22"/>
-      <c r="AP59" s="22"/>
-      <c r="AQ59" s="22"/>
-      <c r="AR59" s="22"/>
-      <c r="AS59" s="22"/>
-      <c r="AT59" s="22"/>
-      <c r="AU59" s="22"/>
-      <c r="AV59" s="22"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="13"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="13"/>
+      <c r="AM59" s="13"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="13"/>
+      <c r="AP59" s="13"/>
+      <c r="AQ59" s="13"/>
+      <c r="AR59" s="13"/>
+      <c r="AS59" s="13"/>
+      <c r="AT59" s="13"/>
+      <c r="AU59" s="13"/>
+      <c r="AV59" s="13"/>
       <c r="BK59" s="8"/>
       <c r="BL59" s="8"/>
       <c r="BM59" s="7"/>
@@ -7202,40 +7209,40 @@
       <c r="BX59" s="7"/>
     </row>
     <row r="60" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="26" t="s">
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
       <c r="BK60" s="8"/>
       <c r="BL60" s="8"/>
       <c r="BM60" s="7"/>
@@ -8084,40 +8091,40 @@
       </c>
     </row>
     <row r="75" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="BF75" s="11" t="s">
+      <c r="BF75" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BG75" s="11"/>
-      <c r="BH75" s="11"/>
-      <c r="BI75" s="11"/>
-      <c r="BJ75" s="11"/>
-      <c r="BK75" s="11"/>
-      <c r="BL75" s="11"/>
-      <c r="BM75" s="11"/>
-      <c r="BN75" s="11"/>
-      <c r="BO75" s="11"/>
-      <c r="BP75" s="11"/>
-      <c r="BQ75" s="11"/>
-      <c r="BR75" s="11"/>
-      <c r="BS75" s="11"/>
+      <c r="BG75" s="19"/>
+      <c r="BH75" s="19"/>
+      <c r="BI75" s="19"/>
+      <c r="BJ75" s="19"/>
+      <c r="BK75" s="19"/>
+      <c r="BL75" s="19"/>
+      <c r="BM75" s="19"/>
+      <c r="BN75" s="19"/>
+      <c r="BO75" s="19"/>
+      <c r="BP75" s="19"/>
+      <c r="BQ75" s="19"/>
+      <c r="BR75" s="19"/>
+      <c r="BS75" s="19"/>
     </row>
     <row r="76" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI76" s="19" t="s">
+      <c r="AI76" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ76" s="19"/>
-      <c r="AK76" s="19"/>
-      <c r="AL76" s="19"/>
-      <c r="AM76" s="19"/>
-      <c r="AN76" s="19"/>
-      <c r="AO76" s="19"/>
-      <c r="AP76" s="19"/>
-      <c r="AQ76" s="19"/>
-      <c r="AR76" s="19"/>
-      <c r="AS76" s="19"/>
-      <c r="AT76" s="19"/>
-      <c r="AU76" s="19"/>
-      <c r="AV76" s="19"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="10"/>
+      <c r="AO76" s="10"/>
+      <c r="AP76" s="10"/>
+      <c r="AQ76" s="10"/>
+      <c r="AR76" s="10"/>
+      <c r="AS76" s="10"/>
+      <c r="AT76" s="10"/>
+      <c r="AU76" s="10"/>
+      <c r="AV76" s="10"/>
       <c r="BF76" s="9"/>
       <c r="BG76" s="9"/>
       <c r="BH76" s="9" t="s">
@@ -9066,13 +9073,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AI76:AV76"/>
-    <mergeCell ref="BK45:BX45"/>
-    <mergeCell ref="A59:AV59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:N60"/>
-    <mergeCell ref="O60:U60"/>
-    <mergeCell ref="V60:AB60"/>
     <mergeCell ref="BC2:BP2"/>
     <mergeCell ref="BF75:BS75"/>
     <mergeCell ref="A1:U1"/>
@@ -9081,6 +9081,13 @@
     <mergeCell ref="AI2:AV2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="H3:N3"/>
+    <mergeCell ref="AI76:AV76"/>
+    <mergeCell ref="BK45:BX45"/>
+    <mergeCell ref="A59:AV59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:N60"/>
+    <mergeCell ref="O60:U60"/>
+    <mergeCell ref="V60:AB60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
